--- a/data/trans_camb/P9_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_2_R-Estudios-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que dejo de hacer algunas tareas por problemas físicos</t>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,94</t>
+          <t>4,36; 11,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 8,97</t>
+          <t>1,55; 8,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,37; 16,49</t>
+          <t>8,35; 16,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,32; 15,61</t>
+          <t>8,29; 15,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 15,25</t>
+          <t>7,48; 15,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,46; 23,31</t>
+          <t>15,86; 23,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,85; 12,9</t>
+          <t>7,75; 12,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,71; 11,37</t>
+          <t>6,2; 11,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,51; 19,79</t>
+          <t>14,06; 19,82</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,14; 87,36</t>
+          <t>25,83; 82,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,63; 63,01</t>
+          <t>8,75; 62,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,03; 117,49</t>
+          <t>48,82; 116,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,53; 72,06</t>
+          <t>33,56; 69,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,62; 69,84</t>
+          <t>30,04; 69,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,86; 106,92</t>
+          <t>62,12; 106,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,44; 68,48</t>
+          <t>36,04; 67,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,66; 60,24</t>
+          <t>29,25; 64,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69,17; 103,68</t>
+          <t>66,13; 104,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,67</t>
+          <t>-0,44; 2,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,83</t>
+          <t>-0,34; 2,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,68</t>
+          <t>3,88; 7,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 4,39</t>
+          <t>-0,08; 4,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,42</t>
+          <t>0,1; 4,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,47</t>
+          <t>1,97; 6,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,05</t>
+          <t>0,33; 2,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,1</t>
+          <t>0,53; 3,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 6,65</t>
+          <t>3,7; 6,55</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 62,28</t>
+          <t>-7,58; 61,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 67,48</t>
+          <t>-6,76; 70,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,86; 183,55</t>
+          <t>67,26; 179,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 50,44</t>
+          <t>-0,79; 52,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 53,21</t>
+          <t>1,5; 57,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,31; 78,97</t>
+          <t>19,96; 81,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 46,95</t>
+          <t>3,95; 45,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 47,76</t>
+          <t>6,8; 49,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,39; 106,11</t>
+          <t>47,76; 101,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,23</t>
+          <t>-1,28; 4,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,59</t>
+          <t>-1,78; 3,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 6,36</t>
+          <t>0,87; 6,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,99</t>
+          <t>-4,21; 3,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 4,55</t>
+          <t>-3,25; 4,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 3,77</t>
+          <t>-2,46; 4,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,97</t>
+          <t>-1,44; 3,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 3,06</t>
+          <t>-1,19; 3,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,54</t>
+          <t>0,39; 4,37</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 173,38</t>
+          <t>-25,25; 154,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,41; 120,15</t>
+          <t>-35,1; 109,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,72; 203,61</t>
+          <t>10,06; 221,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,09; 43,33</t>
+          <t>-41,97; 45,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,86; 70,22</t>
+          <t>-31,06; 68,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 58,54</t>
+          <t>-22,88; 65,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 61,17</t>
+          <t>-21,32; 68,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,91; 62,17</t>
+          <t>-18,27; 64,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 90,45</t>
+          <t>4,92; 85,48</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,39</t>
+          <t>1,41; 4,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,46</t>
+          <t>-0,31; 2,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,18</t>
+          <t>3,15; 6,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,07</t>
+          <t>3,43; 7,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,95</t>
+          <t>1,13; 4,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,38</t>
+          <t>2,31; 6,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,25</t>
+          <t>2,99; 5,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,24</t>
+          <t>0,95; 3,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,93</t>
+          <t>3,39; 6,03</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,71; 58,07</t>
+          <t>15,59; 56,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 32,76</t>
+          <t>-3,42; 31,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,7; 81,07</t>
+          <t>36,27; 81,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,76; 50,85</t>
+          <t>21,56; 50,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,01; 35,78</t>
+          <t>7,66; 35,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,82; 46,13</t>
+          <t>14,92; 47,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,6; 48,12</t>
+          <t>24,99; 50,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,72; 29,49</t>
+          <t>7,92; 30,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,24; 54,46</t>
+          <t>28,33; 55,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_2_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 11,37</t>
+          <t>4,11; 11,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 8,78</t>
+          <t>1,46; 8,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,35; 16,55</t>
+          <t>8,56; 16,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 15,3</t>
+          <t>8,3; 15,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,48; 15,23</t>
+          <t>7,59; 15,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 23,12</t>
+          <t>15,74; 23,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,7</t>
+          <t>7,82; 13,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,99</t>
+          <t>6,12; 11,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 19,82</t>
+          <t>14,12; 20,02</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,83; 82,61</t>
+          <t>24,18; 83,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 62,19</t>
+          <t>8,08; 60,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,82; 116,59</t>
+          <t>48,15; 116,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,56; 69,8</t>
+          <t>32,13; 72,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,04; 69,85</t>
+          <t>30,59; 72,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,12; 106,78</t>
+          <t>62,56; 107,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,04; 67,08</t>
+          <t>37,27; 69,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,25; 64,87</t>
+          <t>29,2; 61,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>66,13; 104,57</t>
+          <t>67,08; 106,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 2,62</t>
+          <t>-0,33; 2,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 2,94</t>
+          <t>-0,33; 2,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,67</t>
+          <t>3,86; 7,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,29</t>
+          <t>-0,01; 4,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,57</t>
+          <t>0,3; 4,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,47</t>
+          <t>1,81; 6,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,92</t>
+          <t>0,35; 2,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,2</t>
+          <t>0,52; 3,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,55</t>
+          <t>3,5; 6,5</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 61,6</t>
+          <t>-6,67; 69,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 70,5</t>
+          <t>-4,72; 71,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,26; 179,61</t>
+          <t>66,13; 178,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 52,66</t>
+          <t>-0,4; 51,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 57,06</t>
+          <t>2,99; 52,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,96; 81,12</t>
+          <t>18,78; 81,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 45,95</t>
+          <t>4,43; 44,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 49,71</t>
+          <t>6,69; 47,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,76; 101,8</t>
+          <t>46,32; 102,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,98</t>
+          <t>-0,91; 4,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,52</t>
+          <t>-1,89; 3,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 6,38</t>
+          <t>0,74; 6,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 3,09</t>
+          <t>-4,09; 3,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,25</t>
+          <t>-3,03; 4,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 4,01</t>
+          <t>-2,11; 3,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,31</t>
+          <t>-1,99; 2,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,25</t>
+          <t>-1,55; 2,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,37</t>
+          <t>0,36; 4,46</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 154,62</t>
+          <t>-19,18; 158,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 109,15</t>
+          <t>-35,62; 111,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,06; 221,87</t>
+          <t>6,58; 211,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,97; 45,56</t>
+          <t>-41,96; 51,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 68,33</t>
+          <t>-31,87; 66,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 65,76</t>
+          <t>-21,58; 64,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 68,42</t>
+          <t>-28,18; 57,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 64,14</t>
+          <t>-21,62; 57,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,92; 85,48</t>
+          <t>4,75; 90,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,26</t>
+          <t>1,22; 4,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,37</t>
+          <t>-0,37; 2,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,1</t>
+          <t>3,09; 6,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 7,06</t>
+          <t>3,29; 7,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,94</t>
+          <t>1,25; 4,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,47</t>
+          <t>2,42; 6,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,34</t>
+          <t>2,8; 5,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,37</t>
+          <t>0,92; 3,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,03</t>
+          <t>3,5; 6,03</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,59; 56,68</t>
+          <t>13,77; 54,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 31,08</t>
+          <t>-4,37; 32,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>36,27; 81,38</t>
+          <t>33,18; 79,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,56; 50,81</t>
+          <t>21,33; 51,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,66; 35,3</t>
+          <t>7,96; 35,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,92; 47,82</t>
+          <t>15,78; 47,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,99; 50,31</t>
+          <t>23,75; 49,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,92; 30,93</t>
+          <t>7,77; 30,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,33; 55,75</t>
+          <t>29,27; 55,5</t>
         </is>
       </c>
     </row>
